--- a/2월 스터디 활동 결과보고서_부울경_1반_김나연.xlsx
+++ b/2월 스터디 활동 결과보고서_부울경_1반_김나연.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="797"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" tabRatio="797"/>
   </bookViews>
   <sheets>
     <sheet name="결과보고서" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -157,7 +157,8 @@
 - 공정민 : 스스로 공부하는 것보다 함께 공부하는 동료들이 있어서 좀 더 쉽게 데이터 엔지니어에 한 걸음 다가설 수 있게 되었습니다. 스터디를 통해 다룰 수 있는 스킬이 늘어가는 거 같아서 뿌듯합니다.
 - 자바 공부할 때 파이썬이랑 비교하면서 공부할 수 있어서 재밌었다. 그리고 데이터 분야의 직무를 수행하려면 생각보다 더 많은 것들을 알아야 한다는 것을 몸소 느꼈다. 스터디의 커리큘럼을 잘 따라가서 나중에 프로젝트 진행에 차질이 없었으면 좋겠다.
 - 최상익 : 혼자였다면 sql, 자바, aws 등 다양하게 공부하지 못했을 것 같은데 스터디를 통해서 함께
-공부하니 다양한 분야를 공부할 원동력이 생겨 좋았습니다.</t>
+공부하니 다양한 분야를 공부할 원동력이 생겨 좋았습니다.
+- 이세울 : 생각보다 알아야하는게 많았습니다. 스터디를 하며 배우고 싶은데 많아져서 너무 좋습니다. 앞으로 배울 내용들을 생각하니 설레입니다.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -322,50 +323,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,7 +521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,7 +556,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -767,107 +768,107 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="49.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.58203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:4" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:4" ht="227.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
